--- a/data/features_category.xlsx
+++ b/data/features_category.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26000" windowHeight="11540"/>
+    <workbookView windowWidth="28060" windowHeight="11560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="特征分类" sheetId="1" r:id="rId1"/>
+    <sheet name="剩余" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -492,10 +493,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -527,8 +528,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,14 +538,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,9 +551,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,6 +563,21 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,38 +597,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,8 +612,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,7 +629,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,8 +664,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,13 +681,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,91 +813,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,79 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,21 +940,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -970,6 +950,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,25 +985,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,6 +1018,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1040,213 +1035,201 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,289 +1553,292 @@
   <sheetPr/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.1953125" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="24.1953125" customWidth="1"/>
-    <col min="6" max="6" width="39.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.4453125" customWidth="1"/>
-    <col min="9" max="9" width="42.234375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="23.8203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="22.0625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11.1953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="24.1953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="14.4453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.234375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.8203125" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="255.5625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.0625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.75" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>36</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="1">
+      <c r="F4" s="11"/>
+      <c r="G4" s="2">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>27</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>39</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <v>31</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -1861,513 +1847,1439 @@
       <c r="F8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>32</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>42</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>22</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <v>35</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="1">
+      <c r="C11" s="11"/>
+      <c r="D11" s="2">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="2">
         <v>23</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>40</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="4:12">
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="2">
         <v>24</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="1">
+      <c r="I12" s="11"/>
+      <c r="J12" s="2">
         <v>53</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="4:12">
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>25</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>57</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="4:12">
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>26</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>63</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="4:12">
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>52</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>29</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>64</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="4:12">
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>43</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="7">
         <v>72</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>44</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>73</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>58</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>45</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="7">
         <v>75</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="4:9">
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>46</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="4:9">
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>55</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="4:9">
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>76</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="4:9">
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>77</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="4:9">
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>66</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>78</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="4:9">
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>67</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>79</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>68</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>147</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>69</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="4:6">
-      <c r="D27" s="6">
+      <c r="D27" s="7">
         <v>70</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="28" spans="4:6">
-      <c r="D28" s="6">
+      <c r="D28" s="7">
         <v>71</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="4:8">
-      <c r="D29" s="6">
+      <c r="D29" s="7">
         <v>74</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>155</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L9:L10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11.1953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="24.1953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="14.4453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.234375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.8203125" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="255.5625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.0625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.75" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:17">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="A4" s="7">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="7">
+        <v>27</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="7">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="7">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="7">
+        <v>30</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="7">
+        <v>31</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="7">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="10">
+        <v>41</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="2">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
+      <c r="A9" s="7">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="2">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="2">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:12">
+      <c r="A10" s="2">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="7">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="7">
+        <v>35</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:12">
+      <c r="A11" s="7">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="2">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="2">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="2">
+        <v>40</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="2">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="2">
+        <v>53</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:12">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="2">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="2">
+        <v>57</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:12">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="2">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="2">
+        <v>63</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:12">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7">
+        <v>52</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="2">
+        <v>64</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:12">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7">
+        <v>43</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="7">
+        <v>72</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:12">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="2">
+        <v>73</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:12">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="7">
+        <v>45</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="7">
+        <v>75</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:12">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7">
+        <v>46</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:12">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="7">
+        <v>55</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:12">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7">
+        <v>61</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="2">
+        <v>76</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="2">
+        <v>77</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:12">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="2">
+        <v>78</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:12">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:12">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7">
+        <v>68</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:12">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7">
+        <v>69</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:12">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7">
+        <v>70</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:12">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7">
+        <v>71</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:12">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7">
+        <v>74</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/data/features_category.xlsx
+++ b/data/features_category.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11560" activeTab="1"/>
+    <workbookView windowWidth="22900" windowHeight="11540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="特征分类" sheetId="1" r:id="rId1"/>
     <sheet name="剩余" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>环境</t>
   </si>
@@ -486,6 +487,12 @@
   </si>
   <si>
     <t>其他属性（电梯、第二个车库、棚、网球场...)</t>
+  </si>
+  <si>
+    <t>FullBath</t>
+  </si>
+  <si>
+    <t>HalfBath</t>
   </si>
 </sst>
 </file>
@@ -493,15 +500,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -515,29 +551,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,6 +565,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -559,22 +580,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -596,25 +627,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,8 +663,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,30 +686,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,187 +702,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,11 +981,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,36 +1059,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1006,15 +1066,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,152 +1083,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,38 +1250,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1554,7 +1695,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1609,13 +1750,13 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2">
@@ -1653,7 +1794,7 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2">
@@ -1674,27 +1815,27 @@
       <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>36</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="2">
         <v>7</v>
       </c>
@@ -1704,24 +1845,24 @@
       <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="2">
         <v>27</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2">
@@ -1753,13 +1894,13 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2">
@@ -1780,13 +1921,13 @@
       <c r="I6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="2">
         <v>30</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1800,13 +1941,13 @@
       <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="2">
@@ -1818,33 +1959,33 @@
       <c r="I7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="2">
         <v>31</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="13">
         <v>41</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="2">
@@ -1867,19 +2008,19 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="2">
         <v>42</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="47" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1900,7 +2041,7 @@
       <c r="K9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="46" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1911,7 +2052,7 @@
       <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="46" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="2">
@@ -1923,31 +2064,31 @@
       <c r="F10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="2">
         <v>22</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="2">
         <v>35</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="11"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>14</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="2">
         <v>48</v>
       </c>
@@ -1963,7 +2104,7 @@
       <c r="H11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="46" t="s">
         <v>79</v>
       </c>
       <c r="J11" s="2">
@@ -1992,7 +2133,7 @@
       <c r="H12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="2">
         <v>53</v>
       </c>
@@ -2062,13 +2203,13 @@
       </c>
     </row>
     <row r="15" spans="4:12">
-      <c r="D15" s="7">
+      <c r="D15" s="2">
         <v>52</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="2">
@@ -2100,22 +2241,22 @@
       <c r="F16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="2">
         <v>43</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="2">
         <v>72</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2158,22 +2299,22 @@
       <c r="F18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="2">
         <v>45</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="2">
         <v>75</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2187,44 +2328,44 @@
       <c r="F19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="2">
         <v>46</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="4:9">
-      <c r="D20" s="7">
+      <c r="D20" s="2">
         <v>60</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="2">
         <v>55</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="45" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="4:9">
-      <c r="D21" s="7">
+      <c r="D21" s="2">
         <v>61</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="3" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="2">
@@ -2298,62 +2439,62 @@
       </c>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="7">
+      <c r="D25" s="2">
         <v>68</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="7">
+      <c r="D26" s="2">
         <v>69</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="4:6">
-      <c r="D27" s="7">
+      <c r="D27" s="2">
         <v>70</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="28" spans="4:6">
-      <c r="D28" s="7">
+      <c r="D28" s="2">
         <v>71</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="4:8">
-      <c r="D29" s="7">
+      <c r="D29" s="2">
         <v>74</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2376,8 +2517,8 @@
   <sheetPr/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2423,217 +2564,213 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="19">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="7">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:17">
-      <c r="A3" s="2">
+      <c r="A3" s="10">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="11">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="7">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="7">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="12">
         <v>36</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="2">
+      <c r="F4" s="24"/>
+      <c r="G4" s="7">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="2">
         <v>27</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="11">
         <v>37</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="7">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="40">
         <v>28</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:12">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="11">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="7">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="2">
         <v>30</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:12">
-      <c r="A7" s="2">
+      <c r="A7" s="10">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="2">
@@ -2645,42 +2782,42 @@
       <c r="I7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="2">
         <v>31</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:12">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="13">
         <v>41</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="7">
         <v>20</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J8" s="2">
@@ -2694,348 +2831,340 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:12">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>42</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="7">
         <v>21</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="7">
         <v>33</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:12">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="15">
         <v>47</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="2">
         <v>22</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="2">
         <v>35</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="11"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:12">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>14</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="2">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="33">
         <v>23</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="7">
         <v>40</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:12">
       <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="2">
+      <c r="D12" s="15">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="33">
         <v>24</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="2">
+      <c r="I12" s="41"/>
+      <c r="J12" s="7">
         <v>53</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:12">
       <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="2">
+      <c r="D13" s="17">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <v>25</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <v>57</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:12">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="2">
+      <c r="D14" s="18">
         <v>51</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="7">
         <v>26</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="42">
         <v>63</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="44" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:12">
       <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7">
+      <c r="D15" s="2">
         <v>52</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="7">
         <v>29</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="42">
         <v>64</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="44" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:12">
       <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="2">
+      <c r="D16" s="18">
         <v>54</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="37">
         <v>43</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="2">
         <v>72</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:12">
       <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>56</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="37">
         <v>44</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="7">
         <v>73</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:12">
       <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <v>58</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="2">
         <v>45</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="2">
         <v>75</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:12">
       <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="2">
+      <c r="D19" s="7">
         <v>59</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="7">
@@ -3048,90 +3177,82 @@
         <v>126</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="1"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:12">
       <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7">
+      <c r="D20" s="2">
         <v>60</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="2">
         <v>55</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="45" t="s">
         <v>130</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="1"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:12">
       <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7">
+      <c r="D21" s="2">
         <v>61</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="7">
         <v>76</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="9" t="s">
         <v>134</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="1"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:12">
       <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="2">
+      <c r="D22" s="7">
         <v>65</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="7">
         <v>77</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:12">
       <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2">
         <v>66</v>
@@ -3142,22 +3263,20 @@
       <c r="F23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="7">
         <v>78</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="9" t="s">
         <v>142</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="1"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
       <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2">
         <v>67</v>
@@ -3168,117 +3287,102 @@
       <c r="F24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="7">
         <v>79</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="1"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:12">
       <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7">
+      <c r="D25" s="2">
         <v>68</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="38"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:12">
       <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7">
+      <c r="D26" s="2">
         <v>69</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="3" t="s">
         <v>150</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="1"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:12">
       <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7">
+      <c r="D27" s="2">
         <v>70</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="3" t="s">
         <v>152</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:12">
       <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7">
+      <c r="D28" s="2">
         <v>71</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="3" t="s">
         <v>154</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
       <c r="I28" s="3"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:12">
       <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7">
+      <c r="D29" s="2">
         <v>74</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
       <c r="L29" s="3"/>
     </row>
   </sheetData>
@@ -3295,4 +3399,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/features_category.xlsx
+++ b/data/features_category.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22900" windowHeight="11540" activeTab="1"/>
+    <workbookView windowWidth="28060" windowHeight="11560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="特征分类" sheetId="1" r:id="rId1"/>
     <sheet name="剩余" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>环境</t>
   </si>
@@ -487,12 +486,6 @@
   </si>
   <si>
     <t>其他属性（电梯、第二个车库、棚、网球场...)</t>
-  </si>
-  <si>
-    <t>FullBath</t>
-  </si>
-  <si>
-    <t>HalfBath</t>
   </si>
 </sst>
 </file>
@@ -500,44 +493,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -551,7 +515,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,13 +551,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -580,32 +559,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -627,22 +596,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,17 +635,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,14 +649,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,37 +681,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,67 +735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +759,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,25 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,19 +837,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,19 +855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,50 +930,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,6 +969,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1066,6 +1006,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,152 +1032,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1250,128 +1199,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1695,7 +1554,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1750,13 +1609,13 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2">
@@ -1794,7 +1653,7 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2">
@@ -1815,27 +1674,27 @@
       <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2">
         <v>7</v>
       </c>
@@ -1845,24 +1704,24 @@
       <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>27</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2">
@@ -1894,13 +1753,13 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2">
@@ -1921,13 +1780,13 @@
       <c r="I6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <v>30</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1941,13 +1800,13 @@
       <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="2">
@@ -1959,33 +1818,33 @@
       <c r="I7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>31</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>41</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="2">
@@ -2008,19 +1867,19 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="2">
         <v>42</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2041,7 +1900,7 @@
       <c r="K9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2052,7 +1911,7 @@
       <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="2">
@@ -2064,31 +1923,31 @@
       <c r="F10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="7">
         <v>22</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <v>35</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2">
         <v>48</v>
       </c>
@@ -2104,7 +1963,7 @@
       <c r="H11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="11" t="s">
         <v>79</v>
       </c>
       <c r="J11" s="2">
@@ -2133,7 +1992,7 @@
       <c r="H12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="2">
         <v>53</v>
       </c>
@@ -2203,13 +2062,13 @@
       </c>
     </row>
     <row r="15" spans="4:12">
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <v>52</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="9" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="2">
@@ -2241,22 +2100,22 @@
       <c r="F16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="7">
         <v>43</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="7">
         <v>72</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2299,22 +2158,22 @@
       <c r="F18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="7">
         <v>45</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="7">
         <v>75</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2328,44 +2187,44 @@
       <c r="F19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="7">
         <v>46</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="4:9">
-      <c r="D20" s="2">
+      <c r="D20" s="7">
         <v>60</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="7">
         <v>55</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="4:9">
-      <c r="D21" s="2">
+      <c r="D21" s="7">
         <v>61</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="9" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="2">
@@ -2439,62 +2298,62 @@
       </c>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="2">
+      <c r="D25" s="7">
         <v>68</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="38"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="4:6">
-      <c r="D26" s="2">
+      <c r="D26" s="7">
         <v>69</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="4:6">
-      <c r="D27" s="2">
+      <c r="D27" s="7">
         <v>70</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="28" spans="4:6">
-      <c r="D28" s="2">
+      <c r="D28" s="7">
         <v>71</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="4:8">
-      <c r="D29" s="2">
+      <c r="D29" s="7">
         <v>74</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="8"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2517,8 +2376,8 @@
   <sheetPr/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2564,213 +2423,217 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="2">
         <v>17</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:17">
-      <c r="A3" s="10">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="2">
         <v>34</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="2">
         <v>18</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <v>36</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="7">
+      <c r="F4" s="11"/>
+      <c r="G4" s="2">
         <v>7</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>27</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="2">
         <v>37</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="2">
         <v>15</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="2">
         <v>28</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:12">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="2">
         <v>38</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="2">
         <v>16</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <v>30</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:12">
-      <c r="A7" s="10">
+      <c r="A7" s="2">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="2">
@@ -2782,42 +2645,42 @@
       <c r="I7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>31</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:12">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>41</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="2">
         <v>20</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J8" s="2">
@@ -2831,340 +2694,348 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:12">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="2">
         <v>42</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="2">
         <v>21</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="2">
         <v>33</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:12">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="2">
         <v>47</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="7">
         <v>22</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <v>35</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:12">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
+      <c r="C11" s="11"/>
+      <c r="D11" s="2">
         <v>48</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="2">
         <v>23</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="2">
         <v>40</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:12">
       <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="15">
+      <c r="D12" s="2">
         <v>49</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="2">
         <v>24</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="7">
+      <c r="I12" s="11"/>
+      <c r="J12" s="2">
         <v>53</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:12">
       <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17">
+      <c r="D13" s="2">
         <v>50</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="2">
         <v>25</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="2">
         <v>57</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:12">
       <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="18">
+      <c r="D14" s="2">
         <v>51</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="2">
         <v>26</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="2">
         <v>63</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:12">
       <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <v>52</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="2">
         <v>29</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="2">
         <v>64</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="L15" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:12">
       <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="18">
+      <c r="D16" s="2">
         <v>54</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="7">
         <v>43</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="7">
         <v>72</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:12">
       <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7">
+      <c r="D17" s="2">
         <v>56</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="2">
         <v>44</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="2">
         <v>73</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:12">
       <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7">
+      <c r="D18" s="2">
         <v>58</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="7">
         <v>45</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="7">
         <v>75</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:12">
       <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7">
+      <c r="D19" s="2">
         <v>59</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="3" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="7">
@@ -3177,82 +3048,90 @@
         <v>126</v>
       </c>
       <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:12">
       <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="2">
+      <c r="D20" s="7">
         <v>60</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="7">
         <v>55</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="17" t="s">
         <v>130</v>
       </c>
       <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:12">
       <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="2">
+      <c r="D21" s="7">
         <v>61</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="2">
         <v>76</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="3" t="s">
         <v>134</v>
       </c>
       <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:12">
       <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7">
+      <c r="D22" s="2">
         <v>65</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="2">
         <v>77</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:12">
       <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2">
         <v>66</v>
@@ -3263,20 +3142,22 @@
       <c r="F23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="2">
         <v>78</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="3" t="s">
         <v>142</v>
       </c>
       <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
       <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2">
         <v>67</v>
@@ -3287,102 +3168,117 @@
       <c r="F24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="2">
         <v>79</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="3" t="s">
         <v>146</v>
       </c>
       <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:12">
       <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="2">
+      <c r="D25" s="7">
         <v>68</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="38"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:12">
       <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="2">
+      <c r="D26" s="7">
         <v>69</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="9" t="s">
         <v>150</v>
       </c>
       <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:12">
       <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="2">
+      <c r="D27" s="7">
         <v>70</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="9" t="s">
         <v>152</v>
       </c>
       <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:12">
       <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="2">
+      <c r="D28" s="7">
         <v>71</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="9" t="s">
         <v>154</v>
       </c>
       <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="3"/>
       <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:12">
       <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="2">
+      <c r="D29" s="7">
         <v>74</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="8"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="3"/>
     </row>
   </sheetData>
@@ -3399,20 +3295,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/data/features_category.xlsx
+++ b/data/features_category.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11560" activeTab="1"/>
+    <workbookView windowWidth="22900" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="特征分类" sheetId="1" r:id="rId1"/>
     <sheet name="剩余" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>环境</t>
   </si>
@@ -486,6 +487,12 @@
   </si>
   <si>
     <t>其他属性（电梯、第二个车库、棚、网球场...)</t>
+  </si>
+  <si>
+    <t>FullBath</t>
+  </si>
+  <si>
+    <t>HalfBath</t>
   </si>
 </sst>
 </file>
@@ -493,13 +500,50 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -515,29 +559,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,6 +573,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -559,22 +588,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -596,25 +635,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,8 +671,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,30 +694,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,55 +710,223 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,134 +936,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -930,11 +1001,161 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,36 +1190,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1006,15 +1197,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,152 +1214,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,37 +1381,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1553,8 +1918,8 @@
   <sheetPr/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1593,11 +1958,11 @@
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
@@ -1609,13 +1974,13 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2">
@@ -1624,16 +1989,16 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="63">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="65" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1653,7 +2018,7 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="47" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2">
@@ -1662,39 +2027,39 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="66">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>36</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="2">
         <v>7</v>
       </c>
@@ -1704,24 +2069,24 @@
       <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="69">
         <v>27</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="71" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2">
@@ -1742,24 +2107,24 @@
       <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="69">
         <v>28</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="71" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="2">
@@ -1777,16 +2142,16 @@
       <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="63">
         <v>30</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="65" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1800,13 +2165,13 @@
       <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="2">
@@ -1815,36 +2180,36 @@
       <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="66">
         <v>31</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="68" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="13">
         <v>41</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="27" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="2">
@@ -1856,30 +2221,30 @@
       <c r="I8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="72">
         <v>32</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="74" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="2">
         <v>42</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="52" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1894,13 +2259,13 @@
       <c r="I9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="75">
         <v>33</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="77" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1911,7 +2276,7 @@
       <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="47" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="2">
@@ -1923,31 +2288,31 @@
       <c r="F10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="2">
         <v>22</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="75">
         <v>35</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="11"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>14</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="2">
         <v>48</v>
       </c>
@@ -1963,16 +2328,16 @@
       <c r="H11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="72">
         <v>40</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="74" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1992,7 +2357,7 @@
       <c r="H12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="2">
         <v>53</v>
       </c>
@@ -2051,24 +2416,24 @@
       <c r="I14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="75">
         <v>63</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="78" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="4:12">
-      <c r="D15" s="7">
+      <c r="D15" s="2">
         <v>52</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="2">
@@ -2080,13 +2445,13 @@
       <c r="I15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="75">
         <v>64</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="78" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2100,22 +2465,22 @@
       <c r="F16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="2">
         <v>43</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="72">
         <v>72</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="74" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2138,13 +2503,13 @@
       <c r="I17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="75">
         <v>73</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="78" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2158,22 +2523,22 @@
       <c r="F18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="2">
         <v>45</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="2">
         <v>75</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2187,44 +2552,44 @@
       <c r="F19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="2">
         <v>46</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="4:9">
-      <c r="D20" s="7">
+      <c r="D20" s="2">
         <v>60</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="2">
         <v>55</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="46" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="4:9">
-      <c r="D21" s="7">
+      <c r="D21" s="2">
         <v>61</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="3" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="2">
@@ -2257,17 +2622,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="4:9">
-      <c r="D23" s="2">
+    <row r="23" spans="3:9">
+      <c r="C23" s="48"/>
+      <c r="D23" s="49">
         <v>66</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="48">
         <v>78</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -2277,17 +2643,18 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="4:9">
-      <c r="D24" s="2">
+    <row r="24" spans="3:9">
+      <c r="C24" s="48"/>
+      <c r="D24" s="50">
         <v>67</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="48">
         <v>79</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2297,63 +2664,68 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="4:7">
-      <c r="D25" s="7">
+    <row r="25" spans="3:7">
+      <c r="C25" s="48"/>
+      <c r="D25" s="50">
         <v>68</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="7">
+      <c r="G25" s="57"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="48"/>
+      <c r="D26" s="50">
         <v>69</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="56" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27" s="7">
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="48"/>
+      <c r="D27" s="51">
         <v>70</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="59" t="s">
         <v>152</v>
       </c>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="4:6">
-      <c r="D28" s="7">
+      <c r="D28" s="2">
         <v>71</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="4:8">
-      <c r="D29" s="7">
+      <c r="D29" s="2">
         <v>74</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2376,8 +2748,8 @@
   <sheetPr/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2423,619 +2795,487 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="J2" s="7">
+        <v>17</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:17">
+      <c r="A3" s="10">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11">
+        <v>34</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7">
+        <v>18</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="7">
         <v>7</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11">
+        <v>37</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="40">
+        <v>28</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11">
+        <v>38</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="7">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="10">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="7">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7">
+        <v>42</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="7">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="7">
+        <v>33</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:12">
+      <c r="A10" s="7">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="7">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7">
-        <v>36</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="15">
+        <v>47</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:12">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
+        <v>48</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="33">
         <v>23</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="7">
-        <v>27</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
-      <c r="A5" s="7">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="2">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:12">
-      <c r="A6" s="7">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="2">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="H11" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="7">
         <v>40</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="7">
-        <v>30</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:12">
-      <c r="A7" s="2">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="7">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="7">
-        <v>31</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:12">
-      <c r="A8" s="7">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="10">
-        <v>41</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="2">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="2">
-        <v>32</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:12">
-      <c r="A9" s="7">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2">
-        <v>42</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="2">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="2">
-        <v>33</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:12">
-      <c r="A10" s="2">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="2">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="7">
-        <v>22</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="7">
-        <v>35</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:12">
-      <c r="A11" s="7">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="2">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="2">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="2">
-        <v>40</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:12">
       <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="2">
+      <c r="D12" s="15">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="33">
         <v>24</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="2">
+      <c r="I12" s="42"/>
+      <c r="J12" s="7">
         <v>53</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:12">
       <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="2">
+      <c r="D13" s="17">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <v>25</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <v>57</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:12">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="2">
+      <c r="D14" s="18">
         <v>51</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="7">
         <v>26</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="43">
         <v>63</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="45" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:12">
       <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7">
-        <v>52</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7">
         <v>29</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="43">
         <v>64</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="45" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:12">
       <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="2">
+      <c r="D16" s="18">
         <v>54</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="37">
         <v>43</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="7">
-        <v>72</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:12">
       <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>56</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="37">
         <v>44</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="7">
         <v>73</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:12">
       <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <v>58</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="7">
-        <v>45</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="7">
-        <v>75</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:12">
       <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="2">
+      <c r="D19" s="7">
         <v>59</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="7">
@@ -3048,237 +3288,152 @@
         <v>126</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="1"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:12">
       <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7">
-        <v>60</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="7">
-        <v>55</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>130</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="1"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:12">
       <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7">
-        <v>61</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="7">
         <v>76</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="9" t="s">
         <v>134</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="1"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:12">
       <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="2">
+      <c r="D22" s="7">
         <v>65</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="7">
         <v>77</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="9" t="s">
         <v>138</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:12">
       <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="2">
-        <v>66</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="7">
         <v>78</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="9" t="s">
         <v>142</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="1"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
       <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="2">
-        <v>67</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="7">
         <v>79</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="1"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:12">
       <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7">
-        <v>68</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="38"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:12">
       <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7">
-        <v>69</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>150</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="1"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:12">
       <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7">
-        <v>70</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:12">
       <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7">
-        <v>71</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>154</v>
-      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
       <c r="I28" s="3"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:12">
       <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7">
-        <v>74</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
       <c r="L29" s="3"/>
     </row>
   </sheetData>
@@ -3295,4 +3450,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/features_category.xlsx
+++ b/data/features_category.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22900" windowHeight="11540"/>
+    <workbookView windowWidth="19100" windowHeight="11540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="特征分类" sheetId="1" r:id="rId1"/>
     <sheet name="剩余" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -557,9 +556,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,6 +569,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,10 +603,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,30 +643,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,17 +671,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,35 +692,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -740,6 +739,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -764,175 +769,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,6 +1111,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1130,8 +1138,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,9 +1185,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,192 +1208,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,9 +1389,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1408,9 +1404,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1432,9 +1425,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1474,10 +1464,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,16 +1482,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1549,31 +1542,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1582,19 +1584,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1918,7 +1911,7 @@
   <sheetPr/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" topLeftCell="I2" workbookViewId="0">
+    <sheetView zoomScale="121" zoomScaleNormal="121" topLeftCell="I2" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1958,11 +1951,11 @@
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
@@ -1989,16 +1982,16 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="63">
+      <c r="J2" s="61">
         <v>17</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="63" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2018,7 +2011,7 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2">
@@ -2027,16 +2020,16 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="64">
         <v>18</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="66" t="s">
         <v>19</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -2059,7 +2052,7 @@
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="2">
         <v>7</v>
       </c>
@@ -2069,13 +2062,13 @@
       <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="67">
         <v>27</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="69" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2107,13 +2100,13 @@
       <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="67">
         <v>28</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="69" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2142,16 +2135,16 @@
       <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="61">
         <v>30</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="63" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2180,16 +2173,16 @@
       <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="64">
         <v>31</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="66" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2203,13 +2196,13 @@
       <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>41</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="24" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="2">
@@ -2221,13 +2214,13 @@
       <c r="I8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="70">
         <v>32</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="74" t="s">
+      <c r="L8" s="72" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2244,7 +2237,7 @@
       <c r="D9" s="2">
         <v>42</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="50" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2259,13 +2252,13 @@
       <c r="I9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="75">
+      <c r="J9" s="73">
         <v>33</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="75" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2276,7 +2269,7 @@
       <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="2">
@@ -2297,13 +2290,13 @@
       <c r="I10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="73">
         <v>35</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="77"/>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
@@ -2312,7 +2305,7 @@
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="2">
         <v>48</v>
       </c>
@@ -2328,16 +2321,16 @@
       <c r="H11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="70">
         <v>40</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="74" t="s">
+      <c r="L11" s="72" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2357,7 +2350,7 @@
       <c r="H12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="2">
         <v>53</v>
       </c>
@@ -2416,13 +2409,13 @@
       <c r="I14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="75">
+      <c r="J14" s="73">
         <v>63</v>
       </c>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="78" t="s">
+      <c r="L14" s="76" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2445,13 +2438,13 @@
       <c r="I15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="73">
         <v>64</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="78" t="s">
+      <c r="L15" s="76" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2474,13 +2467,13 @@
       <c r="I16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="70">
         <v>72</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="72" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2503,13 +2496,13 @@
       <c r="I17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="75">
+      <c r="J17" s="73">
         <v>73</v>
       </c>
-      <c r="K17" s="76" t="s">
+      <c r="K17" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="78" t="s">
+      <c r="L17" s="76" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2578,7 +2571,7 @@
       <c r="H20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="44" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2623,17 +2616,17 @@
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="48"/>
-      <c r="D23" s="49">
+      <c r="C23" s="46"/>
+      <c r="D23" s="47">
         <v>66</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="46">
         <v>78</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -2644,17 +2637,17 @@
       </c>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="48"/>
-      <c r="D24" s="50">
+      <c r="C24" s="46"/>
+      <c r="D24" s="48">
         <v>67</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="46">
         <v>79</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2665,43 +2658,43 @@
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="48"/>
-      <c r="D25" s="50">
+      <c r="C25" s="46"/>
+      <c r="D25" s="48">
         <v>68</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="57"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="48"/>
-      <c r="D26" s="50">
+      <c r="C26" s="46"/>
+      <c r="D26" s="48">
         <v>69</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="48"/>
-      <c r="D27" s="51">
+      <c r="C27" s="46"/>
+      <c r="D27" s="49">
         <v>70</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="4:6">
       <c r="D28" s="2">
@@ -2721,10 +2714,10 @@
       <c r="E29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="38"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="8"/>
     </row>
   </sheetData>
@@ -2748,8 +2741,8 @@
   <sheetPr/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2805,29 +2798,28 @@
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="19">
+      <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="36">
         <v>17</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:17">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2836,13 +2828,13 @@
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>34</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="7">
@@ -2854,13 +2846,13 @@
       <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="36">
         <v>18</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="38" t="s">
         <v>19</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -2869,11 +2861,10 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="7">
         <v>7</v>
       </c>
@@ -2884,20 +2875,18 @@
         <v>25</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>37</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7">
@@ -2909,27 +2898,26 @@
       <c r="I5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="39">
         <v>28</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>38</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="22" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="7">
@@ -2942,11 +2930,10 @@
         <v>41</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:12">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2956,22 +2943,18 @@
         <v>45</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:12">
       <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="7">
         <v>20</v>
       </c>
@@ -2982,17 +2965,15 @@
         <v>57</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:12">
       <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7">
         <v>42</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="25" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -3013,7 +2994,7 @@
       <c r="K9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3024,45 +3005,42 @@
       <c r="B10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>47</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="27" t="s">
         <v>71</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="16"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:12">
       <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
+      <c r="C11" s="13"/>
+      <c r="D11" s="15">
         <v>48</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="30">
         <v>23</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="40" t="s">
         <v>79</v>
       </c>
       <c r="J11" s="7">
@@ -3078,22 +3056,22 @@
     <row r="12" s="1" customFormat="1" spans="1:12">
       <c r="A12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>49</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="30">
         <v>24</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="7">
         <v>53</v>
       </c>
@@ -3107,13 +3085,13 @@
     <row r="13" s="1" customFormat="1" spans="1:12">
       <c r="A13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>50</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="29" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="7">
@@ -3138,13 +3116,13 @@
     <row r="14" s="1" customFormat="1" spans="1:12">
       <c r="A14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>51</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="33" t="s">
         <v>94</v>
       </c>
       <c r="G14" s="7">
@@ -3156,13 +3134,13 @@
       <c r="I14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="41">
         <v>63</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="L14" s="43" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3170,7 +3148,6 @@
       <c r="A15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
       <c r="F15" s="3"/>
       <c r="G15" s="7">
         <v>29</v>
@@ -3181,39 +3158,38 @@
       <c r="I15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="41">
         <v>64</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="43" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:12">
       <c r="A16" s="2"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>54</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="34">
         <v>43</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="22" t="s">
         <v>108</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="1"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:12">
@@ -3228,13 +3204,13 @@
       <c r="F17" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="34">
         <v>44</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="22" t="s">
         <v>114</v>
       </c>
       <c r="J17" s="7">
@@ -3260,10 +3236,8 @@
         <v>118</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:12">
@@ -3294,11 +3268,9 @@
       <c r="A20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="46"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="2"/>
       <c r="L20" s="3"/>
     </row>
@@ -3306,7 +3278,6 @@
       <c r="A21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
       <c r="F21" s="3"/>
       <c r="G21" s="7">
         <v>76</v>
@@ -3348,7 +3319,6 @@
       <c r="A23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="7">
         <v>78</v>
@@ -3366,7 +3336,6 @@
       <c r="A24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
       <c r="F24" s="3"/>
       <c r="G24" s="7">
         <v>79</v>
@@ -3384,9 +3353,8 @@
       <c r="A25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="38"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="7"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="L25" s="3"/>
@@ -3395,7 +3363,6 @@
       <c r="A26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
       <c r="F26" s="3"/>
       <c r="G26" s="2"/>
       <c r="I26" s="3"/>
@@ -3406,7 +3373,6 @@
       <c r="A27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
       <c r="I27" s="3"/>
@@ -3417,7 +3383,6 @@
       <c r="A28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
       <c r="I28" s="3"/>
@@ -3428,9 +3393,8 @@
       <c r="A29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="38"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2"/>
@@ -3450,20 +3414,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>